--- a/LabDemo/Lab2_IntroductionToJUnit/Lab2_TestCases.xlsx
+++ b/LabDemo/Lab2_IntroductionToJUnit/Lab2_TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SC313504_SQA\2564\Lab2_JUnit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADmin\OneDrive\Documents\GitHub\SQA2021\LabDemo\Lab2_IntroductionToJUnit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Test Case Design and Test Results</t>
   </si>
@@ -61,6 +61,60 @@
   </si>
   <si>
     <t>TC001</t>
+  </si>
+  <si>
+    <t>Module:</t>
+  </si>
+  <si>
+    <t>method CalculateTotalPoint in Class CheckMyGrade</t>
+  </si>
+  <si>
+    <t>Modified BVT</t>
+  </si>
+  <si>
+    <t>C. Soomlek</t>
+  </si>
+  <si>
+    <t>Scenario ID</t>
+  </si>
+  <si>
+    <t>pointMidterm</t>
+  </si>
+  <si>
+    <t>pointFinal</t>
+  </si>
+  <si>
+    <t>pointCollected</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>SQA_LAB_2.2</t>
+  </si>
+  <si>
+    <t>Check My Grade</t>
   </si>
 </sst>
 </file>
@@ -89,7 +143,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,8 +156,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -163,11 +235,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -176,19 +285,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -196,15 +293,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -213,6 +301,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -515,17 +687,17 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="16"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
       <c r="A3" s="1"/>
@@ -533,102 +705,102 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="16"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -643,149 +815,324 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A2" s="12" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="G4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2" t="s">
+      <c r="B6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A6" s="5" t="s">
+      <c r="G6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="8" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="G9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="H9" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+    <row r="10" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
+    </row>
+    <row r="11" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8">
+        <v>50</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A12" s="40"/>
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8">
+        <v>40</v>
+      </c>
+      <c r="E12" s="8">
+        <v>20</v>
+      </c>
+      <c r="F12" s="8">
+        <v>100</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A13" s="40"/>
+      <c r="B13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A14" s="40"/>
+      <c r="B14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8">
+        <v>29</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A15" s="40"/>
+      <c r="B15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="8">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8">
+        <v>29</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A16" s="40"/>
+      <c r="B16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>39</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A17" s="41"/>
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+  <mergeCells count="14">
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
